--- a/alhaje Ali Acc.xlsx
+++ b/alhaje Ali Acc.xlsx
@@ -1049,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C253" sqref="C253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1063,7 +1063,7 @@
     <col min="6" max="6" width="17.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1">
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1079,8 +1079,11 @@
       <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1">
+      <c r="G1">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24.95" customHeight="1">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>43022</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1">
       <c r="A3" s="2">
         <v>11</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>43022</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1">
+    <row r="4" spans="1:7" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24.95" customHeight="1">
+    <row r="5" spans="1:7" ht="24.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="25" t="s">
         <v>7</v>
@@ -1144,7 +1147,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1163,7 +1166,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1">
+    <row r="7" spans="1:7" ht="24.95" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1">
+    <row r="8" spans="1:7" ht="24.95" customHeight="1">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1">
+    <row r="9" spans="1:7" ht="24.95" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1">
+    <row r="10" spans="1:7" ht="24.95" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +1230,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24.95" customHeight="1">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>43029</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1">
+    <row r="12" spans="1:7" ht="24.95" customHeight="1">
       <c r="B12" s="26" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1">
+    <row r="13" spans="1:7" ht="24.95" customHeight="1">
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1">
+    <row r="14" spans="1:7" ht="24.95" customHeight="1">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1">
+    <row r="15" spans="1:7" ht="24.95" customHeight="1">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -1311,7 +1314,7 @@
         <v>43031</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1">
+    <row r="16" spans="1:7" ht="24.95" customHeight="1">
       <c r="B16" s="10" t="s">
         <v>7</v>
       </c>

--- a/alhaje Ali Acc.xlsx
+++ b/alhaje Ali Acc.xlsx
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:J407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1095,6 +1095,9 @@
       </c>
       <c r="F2" s="11">
         <v>43022</v>
+      </c>
+      <c r="G2">
+        <v>1212</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1">

--- a/alhaje Ali Acc.xlsx
+++ b/alhaje Ali Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="139">
   <si>
     <t>البيـــــــــــــــان</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>اذن خروج الحاج رقم 486 بورتسودان</t>
+  </si>
+  <si>
+    <t>31/9/2018</t>
   </si>
 </sst>
 </file>
@@ -1049,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J407"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1063,7 +1066,7 @@
     <col min="6" max="6" width="17.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1">
       <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1079,11 +1082,8 @@
       <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1096,11 +1096,8 @@
       <c r="F2" s="11">
         <v>43022</v>
       </c>
-      <c r="G2">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1">
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1">
       <c r="A3" s="2">
         <v>11</v>
       </c>
@@ -1119,7 +1116,7 @@
         <v>43022</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1">
+    <row r="4" spans="1:6" ht="24.95" customHeight="1">
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1131,7 @@
         <v>43023</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1">
+    <row r="5" spans="1:6" ht="24.95" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="25" t="s">
         <v>7</v>
@@ -1150,7 +1147,7 @@
         <v>43024</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1">
+    <row r="6" spans="1:6" ht="24.95" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1">
+    <row r="7" spans="1:6" ht="24.95" customHeight="1">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1188,7 +1185,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1">
+    <row r="8" spans="1:6" ht="24.95" customHeight="1">
       <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1200,7 @@
         <v>43025</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1">
+    <row r="9" spans="1:6" ht="24.95" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
@@ -1218,7 +1215,7 @@
         <v>43026</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
@@ -1233,7 +1230,7 @@
         <v>43027</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
@@ -1248,7 +1245,7 @@
         <v>43029</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1">
+    <row r="12" spans="1:6" ht="24.95" customHeight="1">
       <c r="B12" s="26" t="s">
         <v>8</v>
       </c>
@@ -1264,7 +1261,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1">
+    <row r="13" spans="1:6" ht="24.95" customHeight="1">
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1276,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1">
+    <row r="14" spans="1:6" ht="24.95" customHeight="1">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>43030</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1">
+    <row r="15" spans="1:6" ht="24.95" customHeight="1">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -1317,7 +1314,7 @@
         <v>43031</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1">
+    <row r="16" spans="1:6" ht="24.95" customHeight="1">
       <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
@@ -5163,78 +5160,122 @@
       </c>
     </row>
     <row r="254" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B254" s="10"/>
-      <c r="D254" s="4"/>
+      <c r="B254" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="7">
+        <f>C253-D254</f>
+        <v>89021</v>
+      </c>
+      <c r="D254" s="31">
+        <v>3900</v>
+      </c>
+      <c r="F254" s="13">
+        <v>43370</v>
+      </c>
     </row>
     <row r="255" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B255" s="10"/>
-      <c r="D255" s="4"/>
+      <c r="B255" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C255" s="7">
+        <f>C254-D255</f>
+        <v>79521</v>
+      </c>
+      <c r="D255" s="31">
+        <v>9500</v>
+      </c>
+      <c r="F255" s="13">
+        <v>43372</v>
+      </c>
     </row>
     <row r="256" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B256" s="10"/>
-      <c r="D256" s="4"/>
-    </row>
-    <row r="257" spans="2:4" ht="24.95" customHeight="1">
-      <c r="B257" s="10"/>
-      <c r="D257" s="4"/>
-    </row>
-    <row r="258" spans="2:4" ht="24.95" customHeight="1">
+      <c r="B256" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="7">
+        <f>C255-D256</f>
+        <v>71421</v>
+      </c>
+      <c r="D256" s="31">
+        <v>8100</v>
+      </c>
+      <c r="F256" s="13">
+        <v>43373</v>
+      </c>
+    </row>
+    <row r="257" spans="2:6" ht="24.95" customHeight="1">
+      <c r="B257" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" s="7">
+        <f>C256-D257</f>
+        <v>64221</v>
+      </c>
+      <c r="D257" s="31">
+        <v>7200</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="258" spans="2:6" ht="24.95" customHeight="1">
       <c r="B258" s="10"/>
       <c r="D258" s="4"/>
     </row>
-    <row r="259" spans="2:4" ht="24.95" customHeight="1">
+    <row r="259" spans="2:6" ht="24.95" customHeight="1">
       <c r="B259" s="10"/>
       <c r="D259" s="4"/>
     </row>
-    <row r="260" spans="2:4" ht="24.95" customHeight="1">
+    <row r="260" spans="2:6" ht="24.95" customHeight="1">
       <c r="B260" s="10"/>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="2:4" ht="24.95" customHeight="1">
+    <row r="261" spans="2:6" ht="24.95" customHeight="1">
       <c r="B261" s="10"/>
       <c r="D261" s="4"/>
     </row>
-    <row r="262" spans="2:4" ht="24.95" customHeight="1">
+    <row r="262" spans="2:6" ht="24.95" customHeight="1">
       <c r="B262" s="10"/>
       <c r="D262" s="4"/>
     </row>
-    <row r="263" spans="2:4" ht="24.95" customHeight="1">
+    <row r="263" spans="2:6" ht="24.95" customHeight="1">
       <c r="B263" s="10"/>
       <c r="D263" s="4"/>
     </row>
-    <row r="264" spans="2:4" ht="24.95" customHeight="1">
+    <row r="264" spans="2:6" ht="24.95" customHeight="1">
       <c r="B264" s="10"/>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="2:4" ht="24.95" customHeight="1">
+    <row r="265" spans="2:6" ht="24.95" customHeight="1">
       <c r="B265" s="10"/>
       <c r="D265" s="4"/>
     </row>
-    <row r="266" spans="2:4" ht="24.95" customHeight="1">
+    <row r="266" spans="2:6" ht="24.95" customHeight="1">
       <c r="B266" s="10"/>
       <c r="D266" s="4"/>
     </row>
-    <row r="267" spans="2:4" ht="24.95" customHeight="1">
+    <row r="267" spans="2:6" ht="24.95" customHeight="1">
       <c r="B267" s="10"/>
       <c r="D267" s="4"/>
     </row>
-    <row r="268" spans="2:4" ht="24.95" customHeight="1">
+    <row r="268" spans="2:6" ht="24.95" customHeight="1">
       <c r="B268" s="10"/>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="2:4" ht="24.95" customHeight="1">
+    <row r="269" spans="2:6" ht="24.95" customHeight="1">
       <c r="B269" s="10"/>
       <c r="D269" s="4"/>
     </row>
-    <row r="270" spans="2:4" ht="24.95" customHeight="1">
+    <row r="270" spans="2:6" ht="24.95" customHeight="1">
       <c r="B270" s="10"/>
       <c r="D270" s="4"/>
     </row>
-    <row r="271" spans="2:4" ht="24.95" customHeight="1">
+    <row r="271" spans="2:6" ht="24.95" customHeight="1">
       <c r="B271" s="10"/>
       <c r="D271" s="4"/>
     </row>
-    <row r="272" spans="2:4" ht="24.95" customHeight="1">
+    <row r="272" spans="2:6" ht="24.95" customHeight="1">
       <c r="B272" s="10"/>
       <c r="D272" s="4"/>
     </row>

--- a/alhaje Ali Acc.xlsx
+++ b/alhaje Ali Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="138">
   <si>
     <t>البيـــــــــــــــان</t>
   </si>
@@ -443,9 +443,6 @@
   </si>
   <si>
     <t>اذن خروج الحاج رقم 486 بورتسودان</t>
-  </si>
-  <si>
-    <t>31/9/2018</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5215,41 +5212,130 @@
       <c r="D257" s="31">
         <v>7200</v>
       </c>
-      <c r="F257" s="10" t="s">
-        <v>138</v>
+      <c r="F257" s="13">
+        <v>43374</v>
       </c>
     </row>
     <row r="258" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B258" s="10"/>
-      <c r="D258" s="4"/>
+      <c r="B258" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="7">
+        <f>C257-D258</f>
+        <v>59421</v>
+      </c>
+      <c r="D258" s="4">
+        <v>4800</v>
+      </c>
+      <c r="F258" s="13">
+        <v>43375</v>
+      </c>
     </row>
     <row r="259" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B259" s="10"/>
-      <c r="D259" s="4"/>
+      <c r="B259" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" s="7">
+        <f>C258-D259</f>
+        <v>50921</v>
+      </c>
+      <c r="D259" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F259" s="13">
+        <v>43376</v>
+      </c>
     </row>
     <row r="260" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B260" s="10"/>
-      <c r="D260" s="4"/>
+      <c r="B260" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="7">
+        <f>C259-D260</f>
+        <v>42421</v>
+      </c>
+      <c r="D260" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F260" s="13">
+        <v>43377</v>
+      </c>
     </row>
     <row r="261" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B261" s="10"/>
-      <c r="D261" s="4"/>
+      <c r="B261" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" s="7">
+        <f>C260-D261</f>
+        <v>30621</v>
+      </c>
+      <c r="D261" s="4">
+        <v>11800</v>
+      </c>
+      <c r="F261" s="13">
+        <v>43379</v>
+      </c>
     </row>
     <row r="262" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B262" s="10"/>
-      <c r="D262" s="4"/>
+      <c r="B262" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" s="7">
+        <f>C261-D262</f>
+        <v>20421</v>
+      </c>
+      <c r="D262" s="4">
+        <v>10200</v>
+      </c>
+      <c r="F262" s="13">
+        <v>43380</v>
+      </c>
     </row>
     <row r="263" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B263" s="10"/>
-      <c r="D263" s="4"/>
+      <c r="B263" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="7">
+        <f>C262-D263</f>
+        <v>10221</v>
+      </c>
+      <c r="D263" s="4">
+        <v>10200</v>
+      </c>
+      <c r="F263" s="13">
+        <v>43381</v>
+      </c>
     </row>
     <row r="264" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B264" s="10"/>
-      <c r="D264" s="4"/>
+      <c r="B264" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="7">
+        <f>C263-D264</f>
+        <v>2321</v>
+      </c>
+      <c r="D264" s="4">
+        <v>7900</v>
+      </c>
+      <c r="F264" s="13">
+        <v>43382</v>
+      </c>
     </row>
     <row r="265" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B265" s="10"/>
+      <c r="B265" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C265" s="7">
+        <f>C264+E265</f>
+        <v>93041</v>
+      </c>
       <c r="D265" s="4"/>
+      <c r="E265" s="6">
+        <v>90720</v>
+      </c>
+      <c r="F265" s="13">
+        <v>43383</v>
+      </c>
     </row>
     <row r="266" spans="2:6" ht="24.95" customHeight="1">
       <c r="B266" s="10"/>

--- a/alhaje Ali Acc.xlsx
+++ b/alhaje Ali Acc.xlsx
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:J407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+      <selection activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5146,7 +5146,7 @@
         <v>7</v>
       </c>
       <c r="C253" s="7">
-        <f>C252-D253</f>
+        <f t="shared" ref="C253:C264" si="21">C252-D253</f>
         <v>92921</v>
       </c>
       <c r="D253" s="4">
@@ -5161,7 +5161,7 @@
         <v>7</v>
       </c>
       <c r="C254" s="7">
-        <f>C253-D254</f>
+        <f t="shared" si="21"/>
         <v>89021</v>
       </c>
       <c r="D254" s="31">
@@ -5176,7 +5176,7 @@
         <v>7</v>
       </c>
       <c r="C255" s="7">
-        <f>C254-D255</f>
+        <f t="shared" si="21"/>
         <v>79521</v>
       </c>
       <c r="D255" s="31">
@@ -5191,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="C256" s="7">
-        <f>C255-D256</f>
+        <f t="shared" si="21"/>
         <v>71421</v>
       </c>
       <c r="D256" s="31">
@@ -5206,7 +5206,7 @@
         <v>7</v>
       </c>
       <c r="C257" s="7">
-        <f>C256-D257</f>
+        <f t="shared" si="21"/>
         <v>64221</v>
       </c>
       <c r="D257" s="31">
@@ -5221,7 +5221,7 @@
         <v>7</v>
       </c>
       <c r="C258" s="7">
-        <f>C257-D258</f>
+        <f t="shared" si="21"/>
         <v>59421</v>
       </c>
       <c r="D258" s="4">
@@ -5236,7 +5236,7 @@
         <v>7</v>
       </c>
       <c r="C259" s="7">
-        <f>C258-D259</f>
+        <f t="shared" si="21"/>
         <v>50921</v>
       </c>
       <c r="D259" s="4">
@@ -5251,7 +5251,7 @@
         <v>7</v>
       </c>
       <c r="C260" s="7">
-        <f>C259-D260</f>
+        <f t="shared" si="21"/>
         <v>42421</v>
       </c>
       <c r="D260" s="4">
@@ -5266,7 +5266,7 @@
         <v>7</v>
       </c>
       <c r="C261" s="7">
-        <f>C260-D261</f>
+        <f t="shared" si="21"/>
         <v>30621</v>
       </c>
       <c r="D261" s="4">
@@ -5281,7 +5281,7 @@
         <v>7</v>
       </c>
       <c r="C262" s="7">
-        <f>C261-D262</f>
+        <f t="shared" si="21"/>
         <v>20421</v>
       </c>
       <c r="D262" s="4">
@@ -5296,7 +5296,7 @@
         <v>7</v>
       </c>
       <c r="C263" s="7">
-        <f>C262-D263</f>
+        <f t="shared" si="21"/>
         <v>10221</v>
       </c>
       <c r="D263" s="4">
@@ -5311,7 +5311,7 @@
         <v>7</v>
       </c>
       <c r="C264" s="7">
-        <f>C263-D264</f>
+        <f t="shared" si="21"/>
         <v>2321</v>
       </c>
       <c r="D264" s="4">

--- a/alhaje Ali Acc.xlsx
+++ b/alhaje Ali Acc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="138">
   <si>
     <t>البيـــــــــــــــان</t>
   </si>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:J407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+      <selection activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5338,12 +5338,34 @@
       </c>
     </row>
     <row r="266" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B266" s="10"/>
-      <c r="D266" s="4"/>
+      <c r="B266" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" s="7">
+        <f>C265-D266</f>
+        <v>85741</v>
+      </c>
+      <c r="D266" s="4">
+        <v>7300</v>
+      </c>
+      <c r="F266" s="13">
+        <v>43395</v>
+      </c>
     </row>
     <row r="267" spans="2:6" ht="24.95" customHeight="1">
-      <c r="B267" s="10"/>
-      <c r="D267" s="4"/>
+      <c r="B267" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" s="7">
+        <f>C266-D267</f>
+        <v>78741</v>
+      </c>
+      <c r="D267" s="4">
+        <v>7000</v>
+      </c>
+      <c r="F267" s="13">
+        <v>43396</v>
+      </c>
     </row>
     <row r="268" spans="2:6" ht="24.95" customHeight="1">
       <c r="B268" s="10"/>
@@ -5786,7 +5808,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C12 C19 C25 C43 C48 C66:C67 C65 C71 C79:C81 C82:C85 C113:C115 C149 C154 C175 C168 C165 C221 C226:C227 C235:C236 C234 C246" formula="1"/>
+    <ignoredError sqref="C12 C19 C25 C43 C48 C66:C67 C65 C71 C79:C81 C82:C85 C113:C115 C149 C154 C175 C168 C165 C221 C226:C227 C235:C236 C234 C246 C265" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
